--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A0B35C-6AD2-45F0-81E2-B7D0EF7E6B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF75E1B-E647-4877-8561-73D66CAA400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="209">
   <si>
     <t>Test Case Basic Information</t>
   </si>
@@ -685,9 +685,6 @@
     <t>Reedem coupon</t>
   </si>
   <si>
-    <t>Nudge-quiz-TS-005-- login &amp; play quiz &amp; coupon reedem instantly</t>
-  </si>
-  <si>
     <t>Unique coupon code should generate and able to copy code</t>
   </si>
   <si>
@@ -749,6 +746,12 @@
   </si>
   <si>
     <t>TC-F-Nudge-Story-TS-035-001</t>
+  </si>
+  <si>
+    <t>Nudge-quiz-TS-006-- login &amp; play quiz &amp; coupon reedem instantly</t>
+  </si>
+  <si>
+    <t>Nudge-quiz-TS-006-001</t>
   </si>
 </sst>
 </file>
@@ -999,6 +1002,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1010,9 +1016,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1446,23 +1449,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -1470,15 +1473,15 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -1491,15 +1494,15 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="4"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1512,19 +1515,19 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
       <c r="M4" s="6"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -1533,20 +1536,20 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
@@ -3667,7 +3670,7 @@
         <v>98</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G78" s="31" t="s">
         <v>22</v>
@@ -3795,7 +3798,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -3826,7 +3829,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>23</v>
@@ -3857,7 +3860,7 @@
     </row>
     <row r="85" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>24</v>
@@ -3888,7 +3891,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>25</v>
@@ -3919,7 +3922,7 @@
     </row>
     <row r="87" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>26</v>
@@ -3950,7 +3953,7 @@
     </row>
     <row r="88" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>27</v>
@@ -3961,7 +3964,7 @@
         <v>98</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G88" s="31" t="s">
         <v>22</v>
@@ -3981,7 +3984,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>28</v>
@@ -4012,7 +4015,7 @@
     </row>
     <row r="90" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>29</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>30</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>31</v>
@@ -4105,7 +4108,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>32</v>
@@ -4423,7 +4426,7 @@
       <c r="I103" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J103" s="38" t="s">
+      <c r="J103" s="34" t="s">
         <v>122</v>
       </c>
       <c r="K103" s="20"/>
@@ -5046,7 +5049,7 @@
       <c r="I124" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="J124" s="38" t="s">
+      <c r="J124" s="34" t="s">
         <v>122</v>
       </c>
       <c r="K124" s="20"/>
@@ -6577,7 +6580,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -6608,7 +6611,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B178" s="17" t="s">
         <v>23</v>
@@ -6639,7 +6642,7 @@
     </row>
     <row r="179" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A179" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B179" s="17" t="s">
         <v>24</v>
@@ -6670,7 +6673,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B180" s="17" t="s">
         <v>25</v>
@@ -6701,7 +6704,7 @@
     </row>
     <row r="181" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A181" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B181" s="17" t="s">
         <v>26</v>
@@ -6732,7 +6735,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B182" s="17" t="s">
         <v>27</v>
@@ -6763,7 +6766,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B183" s="17" t="s">
         <v>28</v>
@@ -6794,7 +6797,7 @@
     </row>
     <row r="184" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B184" s="17" t="s">
         <v>29</v>
@@ -6825,7 +6828,7 @@
     </row>
     <row r="185" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B185" s="17" t="s">
         <v>30</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B186" s="17" t="s">
         <v>31</v>
@@ -6915,8 +6918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C77456-386C-4ECB-8B3B-C484F51378F6}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="72" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="72" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6952,37 +6955,37 @@
       <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -6993,15 +6996,15 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -7012,39 +7015,39 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
@@ -7906,7 +7909,7 @@
       <c r="I35" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="34" t="s">
         <v>122</v>
       </c>
       <c r="K35" s="20"/>
@@ -7977,7 +7980,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -7994,7 +7997,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -8025,7 +8028,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>23</v>
@@ -8056,7 +8059,7 @@
     </row>
     <row r="41" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>24</v>
@@ -8087,7 +8090,7 @@
     </row>
     <row r="42" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>25</v>
@@ -8118,7 +8121,7 @@
     </row>
     <row r="43" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>26</v>
@@ -8149,7 +8152,7 @@
     </row>
     <row r="44" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>27</v>
@@ -8180,7 +8183,7 @@
     </row>
     <row r="45" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>28</v>
@@ -8211,7 +8214,7 @@
     </row>
     <row r="46" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>29</v>
@@ -8242,7 +8245,7 @@
     </row>
     <row r="47" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>30</v>
@@ -8259,10 +8262,10 @@
         <v>22</v>
       </c>
       <c r="H47" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I47" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>188</v>
       </c>
       <c r="J47" s="21" t="s">
         <v>39</v>
@@ -8273,7 +8276,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>31</v>
@@ -8304,7 +8307,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>32</v>
@@ -8335,7 +8338,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -8352,7 +8355,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>21</v>
@@ -8383,7 +8386,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>23</v>
@@ -8414,7 +8417,7 @@
     </row>
     <row r="53" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>24</v>
@@ -8445,7 +8448,7 @@
     </row>
     <row r="54" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>25</v>
@@ -8476,7 +8479,7 @@
     </row>
     <row r="55" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>26</v>
@@ -8507,7 +8510,7 @@
     </row>
     <row r="56" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>27</v>
@@ -8538,7 +8541,7 @@
     </row>
     <row r="57" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>28</v>
@@ -8569,7 +8572,7 @@
     </row>
     <row r="58" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>29</v>
@@ -8583,13 +8586,13 @@
         <v>22</v>
       </c>
       <c r="G58" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="H58" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="I58" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="J58" s="21" t="s">
         <v>39</v>
@@ -8600,7 +8603,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>30</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>31</v>
@@ -8662,7 +8665,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -8679,7 +8682,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -8710,7 +8713,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>23</v>
@@ -8741,7 +8744,7 @@
     </row>
     <row r="64" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>24</v>
@@ -8772,7 +8775,7 @@
     </row>
     <row r="65" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>25</v>
@@ -8803,7 +8806,7 @@
     </row>
     <row r="66" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>26</v>
@@ -8834,7 +8837,7 @@
     </row>
     <row r="67" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>27</v>
@@ -8865,7 +8868,7 @@
     </row>
     <row r="68" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>28</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="69" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>29</v>
@@ -8927,7 +8930,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>30</v>
@@ -8958,7 +8961,7 @@
     </row>
     <row r="71" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" s="17" t="s">
         <v>31</v>
@@ -8989,7 +8992,7 @@
     </row>
     <row r="72" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>32</v>
@@ -8997,19 +9000,19 @@
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
       <c r="E72" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F72" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" s="22" t="s">
+      <c r="I72" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>198</v>
       </c>
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
@@ -9018,7 +9021,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>33</v>
@@ -9049,7 +9052,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>34</v>
@@ -9080,7 +9083,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -9097,7 +9100,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -9128,7 +9131,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>23</v>
@@ -9159,7 +9162,7 @@
     </row>
     <row r="78" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>24</v>
@@ -9190,7 +9193,7 @@
     </row>
     <row r="79" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>25</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="80" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>26</v>
@@ -9252,7 +9255,7 @@
     </row>
     <row r="81" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>27</v>
@@ -9283,7 +9286,7 @@
     </row>
     <row r="82" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>28</v>
@@ -9314,7 +9317,7 @@
     </row>
     <row r="83" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>29</v>
@@ -9345,7 +9348,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>30</v>
@@ -9376,7 +9379,7 @@
     </row>
     <row r="85" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>31</v>
@@ -9407,7 +9410,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>32</v>
@@ -9415,19 +9418,19 @@
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I86" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="F86" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I86" s="20" t="s">
-        <v>200</v>
       </c>
       <c r="J86" s="21" t="s">
         <v>39</v>
@@ -9438,7 +9441,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>33</v>
@@ -9469,7 +9472,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>34</v>
